--- a/data/Peumo.xlsx
+++ b/data/Peumo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Peumo.xlsx
+++ b/data/Peumo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de residuos líquidos industriales Viña Rosario</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inversiones Don Sergio SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151133485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de residuos líquidos industriales (RILES) Viña Rosario</t>
+          <t>Planta de tratamiento de residuos líquidos industriales Viña Rosario</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148731561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151133485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nuevo Campamento Carén - División El Teniente</t>
+          <t>Planta de tratamiento de residuos líquidos industriales (RILES) Viña Rosario</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inversiones Don Sergio SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25000</v>
+        <v>80</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148731561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Nuevo Campamento Carén - División El Teniente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>25000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico El Castaño</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EL CASTAÑO SPA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11570</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131264815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Parque Solar Fotovoltaico El Castaño</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>EL CASTAÑO SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6750</v>
+        <v>11570</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131264815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Extracción de áridos Río Cachapoal, sector Puente Peumo Aridos puente Peumo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Extracción de áridos Río Cachapoal, sector Puente Peumo Aridos puente Peumo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>SOCIEDAD CONCESIONARIA LA FRUTA S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Concesión Ruta 66 - Camino de La Fruta</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>400500</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Concesión Ruta 66 - Camino de La Fruta</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>400500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>10/03/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,10 +1960,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -1971,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>300000</v>
+        <v>22</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,40 +2008,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS LOCALIDAD DE LA ESPERANZA COMUNA DE PEUMO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Peumo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>774</v>
+        <v>300000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3539690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS LOCALIDAD DE LA ESPERANZA COMUNA DE PEUMO (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2062,30 +2062,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>774</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3539690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2163,25 +2163,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,15 +2211,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2259,15 +2259,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2307,25 +2307,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2363,17 +2363,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2403,25 +2403,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2451,15 +2451,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2547,15 +2547,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2595,25 +2595,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2643,25 +2643,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2699,17 +2699,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2739,15 +2739,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2787,25 +2787,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,21 +2839,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2883,25 +2883,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,17 +2939,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2979,25 +2979,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Manejo de Riles del Packing SOFRUCO (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3022,30 +3022,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SOFRUCO ALIMENTOS LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Manejo de Riles del Packing SOFRUCO (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3070,20 +3070,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>SOFRUCO ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>14/08/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3131,17 +3131,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3171,25 +3171,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3219,25 +3219,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,17 +3275,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3315,25 +3315,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,17 +3371,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3411,25 +3411,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3459,25 +3459,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3507,25 +3507,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3555,25 +3555,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Peumo (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3598,20 +3598,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>680</v>
+        <v>80</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/10/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1055945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Peumo (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Peumo (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3651,11 +3651,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Marco Antonio Ortiz Bustamante</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>145</v>
+        <v>680</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3664,12 +3664,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1067172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1055945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Cementerio Parque Jardín Peumo (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3694,30 +3694,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Marco Antonio Ortiz Bustamante</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>17/10/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1067172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3747,15 +3747,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos La Rosa S.A. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3790,20 +3790,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Viña La Rosa S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03/09/2004</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos La Rosa S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,15 +3843,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viña La Rosa S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>03/09/2004</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL DEL PLAN REGULADOR DE PEUMO (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Peumo</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>28/10/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=168494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PEUMO (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL DEL PLAN REGULADOR DE PEUMO (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Benedicto Zúñiga Reyes</t>
+          <t>Ilustre Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3947,17 +3947,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>28/10/2003</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=168494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PEUMO (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3982,30 +3982,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Benedicto Zúñiga Reyes</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE PEUMO (e-seia)</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4030,20 +4030,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1566</v>
+        <v>177</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/01/2003</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=43405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional El Porvenir (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE PEUMO (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4083,15 +4083,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Constructora e Inmobiliaria Rodas S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>1566</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29/08/2002</t>
+          <t>20/01/2003</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=28967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=43405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Conjunto Habitacional El Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4126,20 +4126,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Constructora e Inmobiliaria Rodas S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>29/08/2002</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=28967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4179,15 +4179,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>25/03/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4293,10 +4293,58 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Peumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>25/03/1998</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>Peumo</t>
         </is>

--- a/data/Peumo.xlsx
+++ b/data/Peumo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
